--- a/material/feature_mapping.xlsx
+++ b/material/feature_mapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meini\MPI\projects\verbal-probs\material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meder/Documents/Work/Projects/2017 Verbal reasoning in children/experiment/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CB80CE0-28A9-744D-A6FF-2CE92BFF0F8C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="41280" windowHeight="14772"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feature_mapping" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>feature</t>
   </si>
@@ -39,52 +40,247 @@
     <t>horns</t>
   </si>
   <si>
-    <t>H”rner</t>
-  </si>
-  <si>
-    <t>keine H”rner</t>
-  </si>
-  <si>
-    <t>Monster mit H”rnern und Monster ohne H”rner.</t>
-  </si>
-  <si>
-    <t>Monster ohne H”rner und Monster mit H”rnern.</t>
-  </si>
-  <si>
     <t>wings</t>
   </si>
   <si>
-    <t>Flgel</t>
-  </si>
-  <si>
-    <t>keine Flgel</t>
-  </si>
-  <si>
-    <t>Monster mit Flgeln und Monster ohne Flgel.</t>
-  </si>
-  <si>
-    <t>Monster ohne Flgel und Monster mit Flgeln.</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Lila</t>
-  </si>
-  <si>
-    <t>Orange Monster und lila Monster.</t>
-  </si>
-  <si>
-    <t>Lila Monster und orange Monster.</t>
+    <t>Monster ohne Hörner und Monster mit Hörnern.</t>
+  </si>
+  <si>
+    <t>Monster ohne Flügel und Monster mit Flügeln.</t>
+  </si>
+  <si>
+    <t>Hörner</t>
+  </si>
+  <si>
+    <t>Flügel</t>
+  </si>
+  <si>
+    <t>keine Hörner</t>
+  </si>
+  <si>
+    <t>keine Flügel</t>
+  </si>
+  <si>
+    <t>Monster mit Hörnern und Monster ohne Hörner.</t>
+  </si>
+  <si>
+    <t>Monster mit Flügeln und Monster ohne Flügel.</t>
+  </si>
+  <si>
+    <t>antenna</t>
+  </si>
+  <si>
+    <t>antlers</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>moustache</t>
+  </si>
+  <si>
+    <t>paws</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>spikes</t>
+  </si>
+  <si>
+    <t>spots</t>
+  </si>
+  <si>
+    <t>stripe</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>tentacles</t>
+  </si>
+  <si>
+    <t>Antenne</t>
+  </si>
+  <si>
+    <t>keine Antenne</t>
+  </si>
+  <si>
+    <t>Geweih</t>
+  </si>
+  <si>
+    <t>kein Geweih</t>
+  </si>
+  <si>
+    <t>Monster mit Antenne und Monster ohne Antenne.</t>
+  </si>
+  <si>
+    <t>Monster ohne Antenne und Monster mit Antenne.</t>
+  </si>
+  <si>
+    <t>Monster mit Geweih und Monster ohne Geweih.</t>
+  </si>
+  <si>
+    <t>Monster ohne Geweih und Monster mit Geweih.</t>
+  </si>
+  <si>
+    <t>Haare</t>
+  </si>
+  <si>
+    <t>keine Haare</t>
+  </si>
+  <si>
+    <t>Monster mit Haaren und Monster ohne Haare.</t>
+  </si>
+  <si>
+    <t>Monster ohne Haare und Monster mit Haaren.</t>
+  </si>
+  <si>
+    <t>Schnurrbart</t>
+  </si>
+  <si>
+    <t>kein Schnurrbart</t>
+  </si>
+  <si>
+    <t>Monster mit Schnurrbart und Monster ohne Schnurrbart.</t>
+  </si>
+  <si>
+    <t>Monster ohne Schnurrbart und Monster mit Schnurrbart.</t>
+  </si>
+  <si>
+    <t>Tatzen</t>
+  </si>
+  <si>
+    <t>keine Tatzen</t>
+  </si>
+  <si>
+    <t>Monster mit Tatzen und Monster ohne Tatzen.</t>
+  </si>
+  <si>
+    <t>Monster ohne Tatzen und Monster mit Tatzen.</t>
+  </si>
+  <si>
+    <t>Punkt</t>
+  </si>
+  <si>
+    <t>kein Punkt</t>
+  </si>
+  <si>
+    <t>Monster mit Punkt und Monster ohne Punkt.</t>
+  </si>
+  <si>
+    <t>Monster ohne Punkt und Monster mit Punkt.</t>
+  </si>
+  <si>
+    <t>Scherenhänden</t>
+  </si>
+  <si>
+    <t>keine Scherenhände</t>
+  </si>
+  <si>
+    <t>Monster mit Scherenhänden und Monster ohne Scherenhände.</t>
+  </si>
+  <si>
+    <t>Stacheln</t>
+  </si>
+  <si>
+    <t>keine Stacheln</t>
+  </si>
+  <si>
+    <t>Monster mit Stacheln und Monster ohne Stacheln.</t>
+  </si>
+  <si>
+    <t>Punkten</t>
+  </si>
+  <si>
+    <t>ohne Punkte</t>
+  </si>
+  <si>
+    <t>Monster mit Punkten und Monster ohne Punkte.</t>
+  </si>
+  <si>
+    <t>Streifen</t>
+  </si>
+  <si>
+    <t>ohne Streifen</t>
+  </si>
+  <si>
+    <t>Monster mit Streifen und Monster ohne Streifen.</t>
+  </si>
+  <si>
+    <t>Schwanz</t>
+  </si>
+  <si>
+    <t>kein Schwanz</t>
+  </si>
+  <si>
+    <t>Monster mit Schwanz und Monster ohne Schwanz.</t>
+  </si>
+  <si>
+    <t>Zähne</t>
+  </si>
+  <si>
+    <t>one Zähne</t>
+  </si>
+  <si>
+    <t>Monster mit Zähnen und Monster ohne Zähne.</t>
+  </si>
+  <si>
+    <t>Tentakeln</t>
+  </si>
+  <si>
+    <t>ohne Tentakel</t>
+  </si>
+  <si>
+    <t>Monster mit Tentakeln und Monster ohne Tentakel.</t>
+  </si>
+  <si>
+    <t>Monster ohne Scherenhände und Monster mit Scherenhänden.</t>
+  </si>
+  <si>
+    <t>Monster ohne Stacheln und Monster mit Stacheln.</t>
+  </si>
+  <si>
+    <t>Monster ohne Punkte und Monster mit Punkten.</t>
+  </si>
+  <si>
+    <t>Monster ohne Streifen und Monster mit Streifen.</t>
+  </si>
+  <si>
+    <t>Monster ohne Schwanz und Monster mit Schwanz.</t>
+  </si>
+  <si>
+    <t>Monster ohne Zähne und Monster mit Zähnen.</t>
+  </si>
+  <si>
+    <t>Monster ohne Tentakel und Monster mit Tentakeln.</t>
+  </si>
+  <si>
+    <t>bellybutton</t>
+  </si>
+  <si>
+    <t>Bauchnabel</t>
+  </si>
+  <si>
+    <t>kein Bauchnabel</t>
+  </si>
+  <si>
+    <t>Monster mit Bauchnabel und Monster ohne Bauchnabel.</t>
+  </si>
+  <si>
+    <t>Monster ohne Bauchnabel und Monster mit Bauchnabel.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,8 +758,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -884,82 +1081,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>